--- a/data/xlsx/2023-24.xlsx
+++ b/data/xlsx/2023-24.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dnanto/GitHub/broomball/data/xlsx/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9821C722-94E5-EE48-904F-1DCE4CDC2388}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04A87658-3129-1042-B6B0-1F7C3B72F083}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="35840" windowHeight="21900" activeTab="13" xr2:uid="{8DAC862E-F4C0-924F-ACE6-62E467832A04}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="35840" windowHeight="21900" activeTab="16" xr2:uid="{8DAC862E-F4C0-924F-ACE6-62E467832A04}"/>
   </bookViews>
   <sheets>
     <sheet name="team" sheetId="1" r:id="rId1"/>
@@ -27,6 +27,10 @@
     <sheet name="5-2" sheetId="12" r:id="rId12"/>
     <sheet name="6-1" sheetId="13" r:id="rId13"/>
     <sheet name="6-2" sheetId="14" r:id="rId14"/>
+    <sheet name="7-1" sheetId="15" r:id="rId15"/>
+    <sheet name="7-2" sheetId="16" r:id="rId16"/>
+    <sheet name="8-1" sheetId="17" r:id="rId17"/>
+    <sheet name="8-2" sheetId="18" r:id="rId18"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -49,7 +53,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="792" uniqueCount="147">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1135" uniqueCount="169">
   <si>
     <t>team</t>
   </si>
@@ -429,9 +433,6 @@
     <t>03:15</t>
   </si>
   <si>
-    <t>Spencer langrock</t>
-  </si>
-  <si>
     <t>Mike Pawlo</t>
   </si>
   <si>
@@ -459,9 +460,6 @@
     <t>9</t>
   </si>
   <si>
-    <t>0:50</t>
-  </si>
-  <si>
     <t>16:17</t>
   </si>
   <si>
@@ -490,6 +488,78 @@
   </si>
   <si>
     <t>Bill Oehlschlager</t>
+  </si>
+  <si>
+    <t>2023-02-21</t>
+  </si>
+  <si>
+    <t>07:55</t>
+  </si>
+  <si>
+    <t>00:07</t>
+  </si>
+  <si>
+    <t>14:36</t>
+  </si>
+  <si>
+    <t>09:48</t>
+  </si>
+  <si>
+    <t>08:27</t>
+  </si>
+  <si>
+    <t>2023-02-28</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>c</t>
+  </si>
+  <si>
+    <t>06:57</t>
+  </si>
+  <si>
+    <t>Tripping</t>
+  </si>
+  <si>
+    <t>06:27</t>
+  </si>
+  <si>
+    <t>03:03</t>
+  </si>
+  <si>
+    <t>01:49</t>
+  </si>
+  <si>
+    <t>12:33</t>
+  </si>
+  <si>
+    <t>14:50</t>
+  </si>
+  <si>
+    <t>05:59</t>
+  </si>
+  <si>
+    <t>14:16</t>
+  </si>
+  <si>
+    <t>08:30</t>
+  </si>
+  <si>
+    <t>00:50</t>
+  </si>
+  <si>
+    <t>06:47</t>
+  </si>
+  <si>
+    <t>02:35</t>
+  </si>
+  <si>
+    <t>07:57</t>
+  </si>
+  <si>
+    <t>06:04</t>
   </si>
 </sst>
 </file>
@@ -924,7 +994,7 @@
   <dimension ref="A1:L13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A11" sqref="A11:XFD12"/>
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1178,8 +1248,8 @@
       <c r="C13">
         <v>2</v>
       </c>
-      <c r="D13" s="2">
-        <v>0.35416666666666669</v>
+      <c r="D13" s="1" t="s">
+        <v>163</v>
       </c>
       <c r="E13" s="1" t="s">
         <v>25</v>
@@ -1207,7 +1277,7 @@
   <dimension ref="A1:L14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M42" sqref="A1:XFD1048576"/>
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1365,7 +1435,7 @@
       </c>
       <c r="G9" s="1"/>
       <c r="H9" t="s">
-        <v>126</v>
+        <v>34</v>
       </c>
       <c r="I9">
         <v>1</v>
@@ -1394,7 +1464,7 @@
         <v>125</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F10" s="1" t="s">
         <v>17</v>
@@ -1516,10 +1586,10 @@
         <v>10</v>
       </c>
       <c r="C5" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="D5" s="1" t="s">
         <v>128</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>129</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>25</v>
@@ -1592,7 +1662,7 @@
         <v>1</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>34</v>
@@ -1630,7 +1700,7 @@
         <v>2</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E10" s="1" t="s">
         <v>6</v>
@@ -1664,7 +1734,7 @@
         <v>2</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E11" s="1" t="s">
         <v>6</v>
@@ -1700,7 +1770,7 @@
         <v>54</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E12" s="1" t="s">
         <v>13</v>
@@ -1746,7 +1816,7 @@
   <dimension ref="A1:L14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1779,7 +1849,7 @@
         <v>10</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>51</v>
@@ -1835,7 +1905,7 @@
         <v>10</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>121</v>
@@ -1894,7 +1964,7 @@
         <v>1</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>136</v>
+        <v>164</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>12</v>
@@ -1928,7 +1998,7 @@
         <v>2</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="E10" s="1" t="s">
         <v>4</v>
@@ -1964,13 +2034,13 @@
         <v>2</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="E11" s="1" t="s">
         <v>16</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="G11" s="1"/>
       <c r="H11" s="1" t="s">
@@ -2000,10 +2070,10 @@
         <v>54</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F12" s="1" t="s">
         <v>9</v>
@@ -2042,8 +2112,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BA49E88E-2B3B-1E4F-8618-1D8751B84F72}">
   <dimension ref="A1:L16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A15" sqref="A15:XFD16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2081,7 +2151,7 @@
         <v>7</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>51</v>
@@ -2120,7 +2190,7 @@
         <v>5</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>54</v>
@@ -2228,7 +2298,7 @@
         <v>2</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="E10" s="1" t="s">
         <v>6</v>
@@ -2264,7 +2334,7 @@
         <v>2</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="E11" s="1" t="s">
         <v>4</v>
@@ -2300,7 +2370,7 @@
         <v>54</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="E12" s="1" t="s">
         <v>6</v>
@@ -2332,10 +2402,10 @@
         <v>54</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F13" s="1" t="s">
         <v>36</v>
@@ -2362,7 +2432,7 @@
     <row r="14" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="15" spans="1:12" s="1" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
-        <v>77</v>
+        <v>153</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>1</v>
@@ -2403,13 +2473,13 @@
         <v>54</v>
       </c>
       <c r="D16" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="E16" t="s">
         <v>144</v>
       </c>
-      <c r="E16" t="s">
-        <v>146</v>
-      </c>
       <c r="G16" s="1" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="H16" s="1" t="s">
         <v>54</v>
@@ -2418,6 +2488,1484 @@
         <v>45</v>
       </c>
       <c r="J16" s="1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{59EB0DC0-7D35-514A-8ED4-8F63B54FD39D}">
+  <dimension ref="A1:L14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A3" s="1"/>
+      <c r="B3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+    </row>
+    <row r="4" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="8" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="K8" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="L8" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A9" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9">
+        <v>1</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H9" t="s">
+        <v>25</v>
+      </c>
+      <c r="I9">
+        <v>1</v>
+      </c>
+      <c r="J9">
+        <v>0</v>
+      </c>
+      <c r="K9">
+        <v>0</v>
+      </c>
+      <c r="L9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A10" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C10">
+        <v>2</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1"/>
+      <c r="H10" t="s">
+        <v>25</v>
+      </c>
+      <c r="I10">
+        <v>1</v>
+      </c>
+      <c r="J10">
+        <v>0</v>
+      </c>
+      <c r="K10">
+        <v>0</v>
+      </c>
+      <c r="L10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A11" s="1"/>
+      <c r="B11" s="1"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1"/>
+      <c r="H11" s="1"/>
+    </row>
+    <row r="12" spans="1:12" s="1" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I12"/>
+    </row>
+    <row r="13" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A14" s="1"/>
+      <c r="B14" s="1"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="1"/>
+      <c r="G14" s="1"/>
+      <c r="I14" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE56D5FD-8E52-0840-8A94-633BC2D1E65A}">
+  <dimension ref="A1:L19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H17" sqref="H17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A3" s="1"/>
+      <c r="B3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+    </row>
+    <row r="4" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="8" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="K8" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="L8" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A9" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C9">
+        <v>1</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G9" s="1"/>
+      <c r="H9" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="I9">
+        <v>1</v>
+      </c>
+      <c r="J9">
+        <v>0</v>
+      </c>
+      <c r="K9">
+        <v>0</v>
+      </c>
+      <c r="L9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A10" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C10">
+        <v>1</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1"/>
+      <c r="H10" t="s">
+        <v>19</v>
+      </c>
+      <c r="I10">
+        <v>1</v>
+      </c>
+      <c r="J10">
+        <v>0</v>
+      </c>
+      <c r="K10">
+        <v>0</v>
+      </c>
+      <c r="L10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A11" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C11">
+        <v>2</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G11" s="1"/>
+      <c r="H11" t="s">
+        <v>19</v>
+      </c>
+      <c r="I11">
+        <v>1</v>
+      </c>
+      <c r="J11">
+        <v>0</v>
+      </c>
+      <c r="K11">
+        <v>0</v>
+      </c>
+      <c r="L11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" s="1" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H12" t="s">
+        <v>19</v>
+      </c>
+      <c r="I12">
+        <v>1</v>
+      </c>
+      <c r="J12" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="K12" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="L12" s="1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="H13" t="s">
+        <v>19</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="J13" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="K13" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="L13" s="1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A14" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C14">
+        <v>2</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H14" t="s">
+        <v>19</v>
+      </c>
+      <c r="I14" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="J14">
+        <v>0</v>
+      </c>
+      <c r="K14">
+        <v>0</v>
+      </c>
+      <c r="L14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A15" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C15">
+        <v>2</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="H15" t="s">
+        <v>19</v>
+      </c>
+      <c r="I15">
+        <v>1</v>
+      </c>
+      <c r="J15">
+        <v>0</v>
+      </c>
+      <c r="K15">
+        <v>0</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A16" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C16">
+        <v>2</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H16" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="I16">
+        <v>1</v>
+      </c>
+      <c r="J16">
+        <v>0</v>
+      </c>
+      <c r="K16">
+        <v>0</v>
+      </c>
+      <c r="L16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" s="1" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="H18" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="I18" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="J18" s="1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="H19" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="I19" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="J19" s="1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8BEE13DE-AFDA-0A46-9F88-F04F99BF5FBA}">
+  <dimension ref="A1:L18"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F17" sqref="F17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A3" s="1"/>
+      <c r="B3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+    </row>
+    <row r="4" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="8" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="K8" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="L8" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A9" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C9">
+        <v>1</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="H9" t="s">
+        <v>45</v>
+      </c>
+      <c r="I9">
+        <v>1</v>
+      </c>
+      <c r="J9">
+        <v>0</v>
+      </c>
+      <c r="K9">
+        <v>0</v>
+      </c>
+      <c r="L9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A10" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C10">
+        <v>1</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="G10" s="1"/>
+      <c r="H10" t="s">
+        <v>36</v>
+      </c>
+      <c r="I10">
+        <v>0</v>
+      </c>
+      <c r="J10">
+        <v>1</v>
+      </c>
+      <c r="K10">
+        <v>0</v>
+      </c>
+      <c r="L10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A11" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C11">
+        <v>1</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1"/>
+      <c r="H11" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="I11">
+        <v>1</v>
+      </c>
+      <c r="J11">
+        <v>0</v>
+      </c>
+      <c r="K11">
+        <v>0</v>
+      </c>
+      <c r="L11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" s="1" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="I12">
+        <v>1</v>
+      </c>
+      <c r="J12" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="K12" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="L12" s="1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="J13" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="K13" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="L13" s="1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A14" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C14">
+        <v>2</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G14" s="1"/>
+      <c r="H14" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="I14" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="J14">
+        <v>0</v>
+      </c>
+      <c r="K14">
+        <v>0</v>
+      </c>
+      <c r="L14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A15" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C15">
+        <v>2</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="I15">
+        <v>1</v>
+      </c>
+      <c r="J15">
+        <v>0</v>
+      </c>
+      <c r="K15">
+        <v>0</v>
+      </c>
+      <c r="L15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" s="1" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="H17" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="I17" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="J17" s="1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="E18" t="s">
+        <v>42</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="H18" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="I18" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="J18" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C895652E-48E1-C844-8019-F7FEE084C16E}">
+  <dimension ref="A1:L13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G9" sqref="G9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A3" s="1"/>
+      <c r="B3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+    </row>
+    <row r="4" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="8" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="K8" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="L8" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A9" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C9">
+        <v>1</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G9" s="1"/>
+      <c r="H9" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="I9">
+        <v>1</v>
+      </c>
+      <c r="J9">
+        <v>0</v>
+      </c>
+      <c r="K9">
+        <v>0</v>
+      </c>
+      <c r="L9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A10" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C10">
+        <v>1</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="G10" s="1"/>
+      <c r="H10" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="I10">
+        <v>1</v>
+      </c>
+      <c r="J10">
+        <v>0</v>
+      </c>
+      <c r="K10">
+        <v>0</v>
+      </c>
+      <c r="L10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" s="1" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="J12" s="1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="E13" t="s">
+        <v>14</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="J13" s="1" t="s">
         <v>84</v>
       </c>
     </row>
@@ -2431,7 +3979,7 @@
   <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2498,7 +4046,7 @@
         <v>6</v>
       </c>
       <c r="C4" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="D4" t="s">
         <v>17</v>
@@ -2523,7 +4071,7 @@
         <v>19</v>
       </c>
       <c r="B6" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C6" t="s">
         <v>23</v>
@@ -3707,7 +5255,7 @@
         <v>31</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="H10" s="1" t="s">
         <v>19</v>
@@ -4004,7 +5552,7 @@
   <dimension ref="A1:L10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4203,7 +5751,7 @@
         <v>12</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="G8" s="1" t="s">
         <v>19</v>
@@ -4234,7 +5782,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{629250B4-9D89-D84D-8601-7E487280526B}">
   <dimension ref="A1:L9"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A8" sqref="A8:XFD9"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>

--- a/data/xlsx/2023-24.xlsx
+++ b/data/xlsx/2023-24.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10212"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10811"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dnanto/GitHub/broomball/data/xlsx/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04A87658-3129-1042-B6B0-1F7C3B72F083}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4AEC6A89-501E-524B-98C8-927938EEB2D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="35840" windowHeight="21900" activeTab="16" xr2:uid="{8DAC862E-F4C0-924F-ACE6-62E467832A04}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="35840" windowHeight="21900" activeTab="4" xr2:uid="{8DAC862E-F4C0-924F-ACE6-62E467832A04}"/>
   </bookViews>
   <sheets>
     <sheet name="team" sheetId="1" r:id="rId1"/>
@@ -256,9 +256,6 @@
     <t>EN</t>
   </si>
   <si>
-    <t>2022-01-10</t>
-  </si>
-  <si>
     <t>3</t>
   </si>
   <si>
@@ -283,9 +280,6 @@
     <t>Free Agent 7</t>
   </si>
   <si>
-    <t>2022-01-17</t>
-  </si>
-  <si>
     <t>penalty</t>
   </si>
   <si>
@@ -560,6 +554,12 @@
   </si>
   <si>
     <t>06:04</t>
+  </si>
+  <si>
+    <t>2023-01-10</t>
+  </si>
+  <si>
+    <t>2023-01-17</t>
   </si>
 </sst>
 </file>
@@ -934,7 +934,7 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B2" t="s">
         <v>3</v>
@@ -945,7 +945,7 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B3" t="s">
         <v>5</v>
@@ -956,7 +956,7 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B4" t="s">
         <v>7</v>
@@ -967,7 +967,7 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B5" t="s">
         <v>10</v>
@@ -978,10 +978,10 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B6" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
   </sheetData>
@@ -1027,7 +1027,7 @@
         <v>7</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>51</v>
@@ -1066,7 +1066,7 @@
         <v>3</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>54</v>
@@ -1083,7 +1083,7 @@
         <v>7</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>53</v>
@@ -1142,13 +1142,13 @@
         <v>2</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>43</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="G9" s="1" t="s">
         <v>19</v>
@@ -1179,7 +1179,7 @@
     </row>
     <row r="11" spans="1:12" s="1" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>1</v>
@@ -1191,27 +1191,27 @@
         <v>59</v>
       </c>
       <c r="E11" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="G11" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="F11" s="1" t="s">
+      <c r="H11" s="1" t="s">
         <v>79</v>
-      </c>
-      <c r="G11" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="H11" s="1" t="s">
-        <v>81</v>
       </c>
       <c r="I11" s="1" t="s">
         <v>55</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="12" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>7</v>
@@ -1220,13 +1220,13 @@
         <v>54</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="E12" s="1" t="s">
         <v>34</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="H12" s="1" t="s">
         <v>54</v>
@@ -1240,7 +1240,7 @@
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>3</v>
@@ -1249,13 +1249,13 @@
         <v>2</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="E13" s="1" t="s">
         <v>25</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="H13">
         <v>2</v>
@@ -1310,7 +1310,7 @@
         <v>5</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>51</v>
@@ -1352,7 +1352,7 @@
         <v>54</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>34</v>
@@ -1366,7 +1366,7 @@
         <v>5</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>56</v>
@@ -1425,7 +1425,7 @@
         <v>2</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>42</v>
@@ -1461,10 +1461,10 @@
         <v>2</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="F10" s="1" t="s">
         <v>17</v>
@@ -1547,7 +1547,7 @@
         <v>7</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>51</v>
@@ -1586,10 +1586,10 @@
         <v>10</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>25</v>
@@ -1606,7 +1606,7 @@
         <v>56</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>37</v>
@@ -1662,7 +1662,7 @@
         <v>1</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>34</v>
@@ -1700,7 +1700,7 @@
         <v>2</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="E10" s="1" t="s">
         <v>6</v>
@@ -1734,7 +1734,7 @@
         <v>2</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="E11" s="1" t="s">
         <v>6</v>
@@ -1770,7 +1770,7 @@
         <v>54</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="E12" s="1" t="s">
         <v>13</v>
@@ -1849,7 +1849,7 @@
         <v>10</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>51</v>
@@ -1888,7 +1888,7 @@
         <v>3</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>54</v>
@@ -1905,10 +1905,10 @@
         <v>10</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>19</v>
@@ -1964,7 +1964,7 @@
         <v>1</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>12</v>
@@ -1998,7 +1998,7 @@
         <v>2</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="E10" s="1" t="s">
         <v>4</v>
@@ -2034,13 +2034,13 @@
         <v>2</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="E11" s="1" t="s">
         <v>16</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="G11" s="1"/>
       <c r="H11" s="1" t="s">
@@ -2070,10 +2070,10 @@
         <v>54</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="F12" s="1" t="s">
         <v>9</v>
@@ -2085,13 +2085,13 @@
         <v>1</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="K12" s="1" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="L12" s="1" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="13" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
@@ -2151,7 +2151,7 @@
         <v>7</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>51</v>
@@ -2190,7 +2190,7 @@
         <v>5</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>54</v>
@@ -2207,7 +2207,7 @@
         <v>7</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>53</v>
@@ -2298,7 +2298,7 @@
         <v>2</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="E10" s="1" t="s">
         <v>6</v>
@@ -2334,7 +2334,7 @@
         <v>2</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="E11" s="1" t="s">
         <v>4</v>
@@ -2370,7 +2370,7 @@
         <v>54</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="E12" s="1" t="s">
         <v>6</v>
@@ -2382,13 +2382,13 @@
         <v>1</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="K12" s="1" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="L12" s="1" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="13" spans="1:12" s="1" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
@@ -2402,10 +2402,10 @@
         <v>54</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="F13" s="1" t="s">
         <v>36</v>
@@ -2420,19 +2420,19 @@
         <v>1</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="K13" s="1" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="L13" s="1" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="14" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="15" spans="1:12" s="1" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>1</v>
@@ -2444,27 +2444,27 @@
         <v>59</v>
       </c>
       <c r="E15" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="G15" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="F15" s="1" t="s">
+      <c r="H15" s="1" t="s">
         <v>79</v>
-      </c>
-      <c r="G15" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="H15" s="1" t="s">
-        <v>81</v>
       </c>
       <c r="I15" s="1" t="s">
         <v>55</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="16" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>7</v>
@@ -2473,13 +2473,13 @@
         <v>54</v>
       </c>
       <c r="D16" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="E16" t="s">
         <v>142</v>
       </c>
-      <c r="E16" t="s">
-        <v>144</v>
-      </c>
       <c r="G16" s="1" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="H16" s="1" t="s">
         <v>54</v>
@@ -2488,7 +2488,7 @@
         <v>45</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
   </sheetData>
@@ -2534,7 +2534,7 @@
         <v>7</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>51</v>
@@ -2573,10 +2573,10 @@
         <v>5</v>
       </c>
       <c r="C5" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="D5" s="1" t="s">
         <v>68</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>69</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>45</v>
@@ -2590,10 +2590,10 @@
         <v>7</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>25</v>
@@ -2649,7 +2649,7 @@
         <v>1</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>38</v>
@@ -2687,7 +2687,7 @@
         <v>2</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="E10" s="1" t="s">
         <v>44</v>
@@ -2774,7 +2774,7 @@
         <v>10</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>51</v>
@@ -2830,10 +2830,10 @@
         <v>10</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>19</v>
@@ -2889,7 +2889,7 @@
         <v>1</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>44</v>
@@ -2925,7 +2925,7 @@
         <v>1</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="E10" s="1" t="s">
         <v>17</v>
@@ -2959,7 +2959,7 @@
         <v>2</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="E11" s="1" t="s">
         <v>24</v>
@@ -2995,7 +2995,7 @@
         <v>54</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="E12" s="1" t="s">
         <v>16</v>
@@ -3013,13 +3013,13 @@
         <v>1</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="K12" s="1" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="L12" s="1" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="13" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -3033,7 +3033,7 @@
         <v>54</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="E13" s="1" t="s">
         <v>17</v>
@@ -3048,13 +3048,13 @@
         <v>53</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="K13" s="1" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="L13" s="1" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.2">
@@ -3068,7 +3068,7 @@
         <v>2</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="E14" s="1" t="s">
         <v>24</v>
@@ -3106,7 +3106,7 @@
         <v>2</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="E15" s="1" t="s">
         <v>37</v>
@@ -3138,7 +3138,7 @@
         <v>2</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="E16" s="1" t="s">
         <v>27</v>
@@ -3167,7 +3167,7 @@
     </row>
     <row r="18" spans="1:10" s="1" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>1</v>
@@ -3179,27 +3179,27 @@
         <v>59</v>
       </c>
       <c r="E18" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="G18" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="F18" s="1" t="s">
+      <c r="H18" s="1" t="s">
         <v>79</v>
-      </c>
-      <c r="G18" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="H18" s="1" t="s">
-        <v>81</v>
       </c>
       <c r="I18" s="1" t="s">
         <v>55</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="19" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>10</v>
@@ -3208,13 +3208,13 @@
         <v>54</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="E19" s="1" t="s">
         <v>33</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="H19" s="1" t="s">
         <v>54</v>
@@ -3223,7 +3223,7 @@
         <v>36</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
   </sheetData>
@@ -3235,7 +3235,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8BEE13DE-AFDA-0A46-9F88-F04F99BF5FBA}">
   <dimension ref="A1:L18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
@@ -3269,7 +3269,7 @@
         <v>7</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>51</v>
@@ -3308,10 +3308,10 @@
         <v>10</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>45</v>
@@ -3325,10 +3325,10 @@
         <v>7</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>36</v>
@@ -3384,7 +3384,7 @@
         <v>1</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>42</v>
@@ -3422,7 +3422,7 @@
         <v>1</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="E10" s="1" t="s">
         <v>34</v>
@@ -3458,7 +3458,7 @@
         <v>1</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="E11" s="1" t="s">
         <v>24</v>
@@ -3492,7 +3492,7 @@
         <v>53</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="E12" s="1" t="s">
         <v>9</v>
@@ -3510,13 +3510,13 @@
         <v>1</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="K12" s="1" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="L12" s="1" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="13" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -3530,7 +3530,7 @@
         <v>54</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="E13" s="1" t="s">
         <v>42</v>
@@ -3548,13 +3548,13 @@
         <v>53</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="K13" s="1" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="L13" s="1" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.2">
@@ -3568,7 +3568,7 @@
         <v>2</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="E14" s="1" t="s">
         <v>16</v>
@@ -3601,7 +3601,7 @@
         <v>2</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="E15" s="1" t="s">
         <v>16</v>
@@ -3630,7 +3630,7 @@
     </row>
     <row r="17" spans="1:10" s="1" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>1</v>
@@ -3642,27 +3642,27 @@
         <v>59</v>
       </c>
       <c r="E17" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="G17" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="F17" s="1" t="s">
+      <c r="H17" s="1" t="s">
         <v>79</v>
-      </c>
-      <c r="G17" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="H17" s="1" t="s">
-        <v>81</v>
       </c>
       <c r="I17" s="1" t="s">
         <v>55</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="18" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>10</v>
@@ -3671,13 +3671,13 @@
         <v>53</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="E18" t="s">
         <v>42</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="H18" s="1" t="s">
         <v>54</v>
@@ -3732,7 +3732,7 @@
         <v>3</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>51</v>
@@ -3771,10 +3771,10 @@
         <v>5</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>25</v>
@@ -3788,10 +3788,10 @@
         <v>3</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>34</v>
@@ -3847,7 +3847,7 @@
         <v>1</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>44</v>
@@ -3883,7 +3883,7 @@
         <v>1</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="E10" s="1" t="s">
         <v>27</v>
@@ -3910,7 +3910,7 @@
     </row>
     <row r="12" spans="1:12" s="1" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>1</v>
@@ -3922,27 +3922,27 @@
         <v>59</v>
       </c>
       <c r="E12" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="G12" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="F12" s="1" t="s">
+      <c r="H12" s="1" t="s">
         <v>79</v>
-      </c>
-      <c r="G12" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="H12" s="1" t="s">
-        <v>81</v>
       </c>
       <c r="I12" s="1" t="s">
         <v>55</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="13" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>5</v>
@@ -3951,13 +3951,13 @@
         <v>53</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="E13" t="s">
         <v>14</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="H13" s="1" t="s">
         <v>54</v>
@@ -3966,7 +3966,7 @@
         <v>34</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
   </sheetData>
@@ -4004,7 +4004,7 @@
         <v>10</v>
       </c>
       <c r="E1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
@@ -4021,7 +4021,7 @@
         <v>9</v>
       </c>
       <c r="E2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
@@ -4046,7 +4046,7 @@
         <v>6</v>
       </c>
       <c r="C4" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="D4" t="s">
         <v>17</v>
@@ -4071,7 +4071,7 @@
         <v>19</v>
       </c>
       <c r="B6" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C6" t="s">
         <v>23</v>
@@ -4124,7 +4124,7 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B10" t="s">
         <v>37</v>
@@ -4169,7 +4169,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48D15C80-B2E9-E341-A39E-0E8718A58F8A}">
   <dimension ref="A1:L9"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B8" sqref="B8:L8"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
@@ -4204,7 +4206,7 @@
         <v>5</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>67</v>
+        <v>167</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>51</v>
@@ -4235,10 +4237,10 @@
         <v>5</v>
       </c>
       <c r="C5" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="D5" s="1" t="s">
         <v>68</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>69</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>36</v>
@@ -4252,10 +4254,10 @@
         <v>10</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>34</v>
@@ -4310,7 +4312,7 @@
         <v>2</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>32</v>
@@ -4343,7 +4345,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BA2853E9-0D25-0E45-B7E4-D8A04E7A0AF4}">
   <dimension ref="A1:L12"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
@@ -4378,7 +4382,7 @@
         <v>3</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>67</v>
+        <v>167</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>51</v>
@@ -4409,7 +4413,7 @@
         <v>7</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>56</v>
@@ -4426,7 +4430,7 @@
         <v>3</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>56</v>
@@ -4484,7 +4488,7 @@
         <v>2</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>32</v>
@@ -4516,7 +4520,7 @@
         <v>2</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="E10" s="1" t="s">
         <v>29</v>
@@ -4548,7 +4552,7 @@
         <v>2</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="E11" s="1" t="s">
         <v>43</v>
@@ -4557,7 +4561,7 @@
         <v>4</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="H11" s="1" t="s">
         <v>25</v>
@@ -4586,7 +4590,7 @@
         <v>2</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="E12" s="1" t="s">
         <v>43</v>
@@ -4619,7 +4623,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8AE760F7-EFE6-AD47-AC0C-6B2330B3709C}">
   <dimension ref="A1:L13"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
@@ -4654,7 +4658,7 @@
         <v>7</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>76</v>
+        <v>168</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>51</v>
@@ -4709,7 +4713,7 @@
         <v>1</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>34</v>
@@ -4744,7 +4748,7 @@
         <v>1</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>34</v>
@@ -4782,7 +4786,7 @@
         <v>2</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>42</v>
@@ -4814,7 +4818,7 @@
         <v>2</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>17</v>
@@ -4852,7 +4856,7 @@
         <v>2</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>35</v>
@@ -4890,7 +4894,7 @@
         <v>2</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="E10" s="1" t="s">
         <v>15</v>
@@ -4919,7 +4923,7 @@
     </row>
     <row r="12" spans="1:12" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>1</v>
@@ -4931,27 +4935,27 @@
         <v>59</v>
       </c>
       <c r="E12" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="G12" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="F12" s="1" t="s">
+      <c r="H12" s="1" t="s">
         <v>79</v>
-      </c>
-      <c r="G12" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="H12" s="1" t="s">
-        <v>81</v>
       </c>
       <c r="I12" s="1" t="s">
         <v>55</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>10</v>
@@ -4960,13 +4964,13 @@
         <v>54</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="E13" s="1" t="s">
         <v>21</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="H13" s="1" t="s">
         <v>54</v>
@@ -4975,7 +4979,7 @@
         <v>36</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
   </sheetData>
@@ -4987,7 +4991,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6AF1A98E-D775-BA4B-B723-7D5E487BD178}">
   <dimension ref="A1:L12"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
@@ -5022,7 +5028,7 @@
         <v>3</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>76</v>
+        <v>168</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>51</v>
@@ -5077,7 +5083,7 @@
         <v>1</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>12</v>
@@ -5112,7 +5118,7 @@
         <v>2</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>6</v>
@@ -5150,7 +5156,7 @@
         <v>2</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>12</v>
@@ -5182,7 +5188,7 @@
         <v>2</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>6</v>
@@ -5214,7 +5220,7 @@
         <v>2</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>14</v>
@@ -5246,7 +5252,7 @@
         <v>2</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="E10" s="1" t="s">
         <v>37</v>
@@ -5255,7 +5261,7 @@
         <v>31</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="H10" s="1" t="s">
         <v>19</v>
@@ -5284,7 +5290,7 @@
   <dimension ref="A1:L12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="G34" sqref="G34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5317,7 +5323,7 @@
         <v>3</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>51</v>
@@ -5373,7 +5379,7 @@
         <v>1</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>21</v>
@@ -5408,7 +5414,7 @@
         <v>1</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>32</v>
@@ -5442,7 +5448,7 @@
         <v>2</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>24</v>
@@ -5477,7 +5483,7 @@
         <v>2</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>42</v>
@@ -5513,7 +5519,7 @@
         <v>2</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>42</v>
@@ -5588,7 +5594,7 @@
         <v>5</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>51</v>
@@ -5643,7 +5649,7 @@
         <v>1</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>21</v>
@@ -5675,7 +5681,7 @@
         <v>1</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>23</v>
@@ -5710,7 +5716,7 @@
         <v>2</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>12</v>
@@ -5745,13 +5751,13 @@
         <v>2</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="G8" s="1" t="s">
         <v>19</v>
@@ -5816,7 +5822,7 @@
         <v>10</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>51</v>
@@ -5872,7 +5878,7 @@
         <v>1</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>21</v>
@@ -5910,7 +5916,7 @@
         <v>2</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>16</v>
@@ -5935,7 +5941,7 @@
     </row>
     <row r="8" spans="1:12" s="1" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>1</v>
@@ -5947,27 +5953,27 @@
         <v>59</v>
       </c>
       <c r="E8" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="G8" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="F8" s="1" t="s">
+      <c r="H8" s="1" t="s">
         <v>79</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="H8" s="1" t="s">
-        <v>81</v>
       </c>
       <c r="I8" s="1" t="s">
         <v>55</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="9" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>10</v>
@@ -5976,13 +5982,13 @@
         <v>54</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>24</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="H9" s="1" t="s">
         <v>54</v>
@@ -5991,7 +5997,7 @@
         <v>36</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
   </sheetData>

--- a/data/xlsx/2023-24.xlsx
+++ b/data/xlsx/2023-24.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10811"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10609"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dnanto/GitHub/broomball/data/xlsx/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4AEC6A89-501E-524B-98C8-927938EEB2D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3B9D710-91D5-AE46-A5FA-1308E064C3D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="35840" windowHeight="21900" activeTab="4" xr2:uid="{8DAC862E-F4C0-924F-ACE6-62E467832A04}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="35840" windowHeight="21900" activeTab="13" xr2:uid="{8DAC862E-F4C0-924F-ACE6-62E467832A04}"/>
   </bookViews>
   <sheets>
     <sheet name="team" sheetId="1" r:id="rId1"/>
@@ -617,9 +617,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -657,7 +657,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -763,7 +763,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -905,7 +905,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -915,72 +915,76 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A857C39-4C17-6B48-BC82-3782AE7F0593}">
   <dimension ref="A1:C6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="R23" sqref="R23"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="24.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="16384" width="10.83203125" style="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
+      <c r="A2" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="1" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
+      <c r="A3" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="1" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
+      <c r="A4" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
+      <c r="A5" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" s="1" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
+      <c r="A6" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="1" t="s">
         <v>72</v>
       </c>
     </row>
@@ -993,11 +997,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A1F77662-85C3-FE41-9ACE-6FBE1A67E817}">
   <dimension ref="A1:L13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="7.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.83203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.1640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="6.5" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="3.33203125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="3.5" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
@@ -1276,11 +1292,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{450F1CF0-FF0D-774C-B31F-BFF7D5C2F8DA}">
   <dimension ref="A1:L14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="6.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.83203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.1640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.83203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="6.83203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="3.33203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="3.1640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="3.33203125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="3.5" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
@@ -1513,11 +1541,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9836F90F-3A84-5E49-AE71-F1C26CBA4A2E}">
   <dimension ref="A1:L14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="6.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.83203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.1640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.83203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.83203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="3.33203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="3.1640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="3.33203125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="3.5" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
@@ -1815,11 +1855,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0782EEC3-8D23-A743-B0D8-0C16CCF29CEA}">
   <dimension ref="A1:L14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="6.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="6.83203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.1640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.83203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="6.83203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.33203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="3.33203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="3.1640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="3.33203125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="3.5" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
@@ -2112,18 +2163,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BA49E88E-2B3B-1E4F-8618-1D8751B84F72}">
   <dimension ref="A1:L16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A15" sqref="A15:XFD16"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="5" max="5" width="18.1640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.33203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="13" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="6.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="3.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="3.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>46</v>
       </c>
@@ -2140,7 +2198,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="2" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>46</v>
       </c>
@@ -2157,15 +2215,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A3" s="1"/>
-      <c r="B3" s="1"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
-      <c r="G3" s="1"/>
-    </row>
-    <row r="4" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>52</v>
       </c>
@@ -2182,7 +2232,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="5" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>52</v>
       </c>
@@ -2199,7 +2249,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="6" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>52</v>
       </c>
@@ -2216,8 +2266,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="7" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="8" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>57</v>
       </c>
@@ -2262,28 +2311,25 @@
       <c r="B9" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C9">
-        <v>1</v>
-      </c>
-      <c r="D9" s="1"/>
+      <c r="C9" s="1">
+        <v>1</v>
+      </c>
       <c r="E9" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="F9" s="1"/>
-      <c r="G9" s="1"/>
-      <c r="H9" t="s">
+      <c r="H9" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="I9">
-        <v>1</v>
-      </c>
-      <c r="J9">
-        <v>0</v>
-      </c>
-      <c r="K9">
-        <v>0</v>
-      </c>
-      <c r="L9">
+      <c r="I9" s="1">
+        <v>1</v>
+      </c>
+      <c r="J9" s="1">
+        <v>0</v>
+      </c>
+      <c r="K9" s="1">
+        <v>0</v>
+      </c>
+      <c r="L9" s="1">
         <v>0</v>
       </c>
     </row>
@@ -2294,7 +2340,7 @@
       <c r="B10" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C10">
+      <c r="C10" s="1">
         <v>2</v>
       </c>
       <c r="D10" s="1" t="s">
@@ -2306,20 +2352,19 @@
       <c r="F10" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="G10" s="1"/>
-      <c r="H10" t="s">
+      <c r="H10" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="I10">
-        <v>1</v>
-      </c>
-      <c r="J10">
-        <v>0</v>
-      </c>
-      <c r="K10">
-        <v>0</v>
-      </c>
-      <c r="L10">
+      <c r="I10" s="1">
+        <v>1</v>
+      </c>
+      <c r="J10" s="1">
+        <v>0</v>
+      </c>
+      <c r="K10" s="1">
+        <v>0</v>
+      </c>
+      <c r="L10" s="1">
         <v>0</v>
       </c>
     </row>
@@ -2330,7 +2375,7 @@
       <c r="B11" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C11">
+      <c r="C11" s="1">
         <v>2</v>
       </c>
       <c r="D11" s="1" t="s">
@@ -2342,24 +2387,23 @@
       <c r="F11" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="G11" s="1"/>
       <c r="H11" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="I11">
-        <v>1</v>
-      </c>
-      <c r="J11">
-        <v>0</v>
-      </c>
-      <c r="K11">
-        <v>0</v>
-      </c>
-      <c r="L11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" s="1" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I11" s="1">
+        <v>1</v>
+      </c>
+      <c r="J11" s="1">
+        <v>0</v>
+      </c>
+      <c r="K11" s="1">
+        <v>0</v>
+      </c>
+      <c r="L11" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>57</v>
       </c>
@@ -2378,7 +2422,7 @@
       <c r="H12" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="I12">
+      <c r="I12" s="1">
         <v>1</v>
       </c>
       <c r="J12" s="1" t="s">
@@ -2391,7 +2435,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="13" spans="1:12" s="1" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:12" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>57</v>
       </c>
@@ -2416,7 +2460,7 @@
       <c r="H13" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="I13">
+      <c r="I13" s="1">
         <v>1</v>
       </c>
       <c r="J13" s="1" t="s">
@@ -2429,8 +2473,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="14" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="15" spans="1:12" s="1" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:12" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>151</v>
       </c>
@@ -2462,7 +2505,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="16" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>75</v>
       </c>
@@ -2475,7 +2518,7 @@
       <c r="D16" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="E16" t="s">
+      <c r="E16" s="1" t="s">
         <v>142</v>
       </c>
       <c r="G16" s="1" t="s">
@@ -3978,185 +4021,185 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6661E070-ACDF-7449-BCE2-262EDC741137}">
   <dimension ref="A1:E13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="19.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.83203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.83203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
+      <c r="A1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="1" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
+      <c r="A2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" s="1" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
+      <c r="A3" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" s="1" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
+      <c r="A4" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D4" s="1" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
+      <c r="A5" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D5" s="1" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
+      <c r="A6" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C6" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D6" t="s">
+      <c r="D6" s="1" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
+      <c r="A7" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C7" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="D7" t="s">
+      <c r="D7" s="1" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
+      <c r="A8" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C8" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="D8" t="s">
+      <c r="D8" s="1" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
+      <c r="A9" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C9" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="D9" t="s">
+      <c r="D9" s="1" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
+      <c r="A10" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C10" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="D10" t="s">
+      <c r="D10" s="1" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
+      <c r="A11" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="C11" t="s">
+      <c r="C11" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D11" t="s">
+      <c r="D11" s="1" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="D12" t="s">
+      <c r="D12" s="1" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="D13" t="s">
+      <c r="D13" s="1" t="s">
         <v>42</v>
       </c>
     </row>
@@ -4169,13 +4212,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48D15C80-B2E9-E341-A39E-0E8718A58F8A}">
   <dimension ref="A1:L9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8:L8"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="16384" width="10.83203125" style="1"/>
+    <col min="1" max="1" width="6.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="6.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="3.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="3.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="3.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="3.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.2">
@@ -4345,13 +4398,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BA2853E9-0D25-0E45-B7E4-D8A04E7A0AF4}">
   <dimension ref="A1:L12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="16384" width="10.83203125" style="1"/>
+    <col min="1" max="1" width="6.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="3.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="3.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="3.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="3.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.2">
@@ -4623,11 +4686,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8AE760F7-EFE6-AD47-AC0C-6B2330B3709C}">
   <dimension ref="A1:L13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="16384" width="10.83203125" style="1"/>
+    <col min="1" max="1" width="7.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="16.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="6.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="3.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="3.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.2">
@@ -4991,13 +5065,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6AF1A98E-D775-BA4B-B723-7D5E487BD178}">
   <dimension ref="A1:L12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="16384" width="10.83203125" style="1"/>
+    <col min="1" max="1" width="6.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="3.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="3.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="3.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="3.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.2">
@@ -5289,11 +5373,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE83BA9D-69FE-354C-9B1D-0DED66719DA7}">
   <dimension ref="A1:L12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G34" sqref="G34"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="6.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.83203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.1640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.83203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.33203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="3.33203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="3.1640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="3.33203125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="3.5" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
@@ -5557,13 +5653,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{46634B56-FD4C-424E-8F55-B3F7368CF699}">
   <dimension ref="A1:L10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="16384" width="10.83203125" style="1"/>
+    <col min="1" max="1" width="6.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="3.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="3.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="3.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="3.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.2">
@@ -5788,11 +5894,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{629250B4-9D89-D84D-8601-7E487280526B}">
   <dimension ref="A1:L9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A8" sqref="A8:XFD9"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="7.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="6.83203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.1640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.33203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="6.5" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="3.33203125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="3.5" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">

--- a/data/xlsx/2023-24.xlsx
+++ b/data/xlsx/2023-24.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dnanto/GitHub/broomball/data/xlsx/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3B9D710-91D5-AE46-A5FA-1308E064C3D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B1CE7F8-2EF5-554C-84F6-DBD2832BEAC8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="35840" windowHeight="21900" activeTab="13" xr2:uid="{8DAC862E-F4C0-924F-ACE6-62E467832A04}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="35840" windowHeight="21900" activeTab="1" xr2:uid="{8DAC862E-F4C0-924F-ACE6-62E467832A04}"/>
   </bookViews>
   <sheets>
     <sheet name="team" sheetId="1" r:id="rId1"/>
@@ -2163,7 +2163,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BA49E88E-2B3B-1E4F-8618-1D8751B84F72}">
   <dimension ref="A1:L16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
@@ -2541,15 +2541,16 @@
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{59EB0DC0-7D35-514A-8ED4-8F63B54FD39D}">
-  <dimension ref="A1:L14"/>
+  <dimension ref="A1:L12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="16384" width="10.83203125" style="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>46</v>
       </c>
@@ -2566,7 +2567,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="2" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>46</v>
       </c>
@@ -2583,15 +2584,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A3" s="1"/>
-      <c r="B3" s="1"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
-      <c r="G3" s="1"/>
-    </row>
-    <row r="4" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>52</v>
       </c>
@@ -2608,7 +2601,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="5" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>52</v>
       </c>
@@ -2625,7 +2618,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="6" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>52</v>
       </c>
@@ -2642,8 +2635,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="7" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="8" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>57</v>
       </c>
@@ -2688,7 +2680,7 @@
       <c r="B9" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C9">
+      <c r="C9" s="1">
         <v>1</v>
       </c>
       <c r="D9" s="1" t="s">
@@ -2703,19 +2695,19 @@
       <c r="G9" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="H9" t="s">
+      <c r="H9" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="I9">
-        <v>1</v>
-      </c>
-      <c r="J9">
-        <v>0</v>
-      </c>
-      <c r="K9">
-        <v>0</v>
-      </c>
-      <c r="L9">
+      <c r="I9" s="1">
+        <v>1</v>
+      </c>
+      <c r="J9" s="1">
+        <v>0</v>
+      </c>
+      <c r="K9" s="1">
+        <v>0</v>
+      </c>
+      <c r="L9" s="1">
         <v>0</v>
       </c>
     </row>
@@ -2726,7 +2718,7 @@
       <c r="B10" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C10">
+      <c r="C10" s="1">
         <v>2</v>
       </c>
       <c r="D10" s="1" t="s">
@@ -2735,45 +2727,23 @@
       <c r="E10" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="F10" s="1"/>
-      <c r="G10" s="1"/>
-      <c r="H10" t="s">
+      <c r="H10" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="I10">
-        <v>1</v>
-      </c>
-      <c r="J10">
-        <v>0</v>
-      </c>
-      <c r="K10">
-        <v>0</v>
-      </c>
-      <c r="L10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A11" s="1"/>
-      <c r="B11" s="1"/>
-      <c r="D11" s="1"/>
-      <c r="E11" s="1"/>
-      <c r="F11" s="1"/>
-      <c r="G11" s="1"/>
-      <c r="H11" s="1"/>
-    </row>
-    <row r="12" spans="1:12" s="1" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="I12"/>
-    </row>
-    <row r="13" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A14" s="1"/>
-      <c r="B14" s="1"/>
-      <c r="D14" s="2"/>
-      <c r="E14" s="1"/>
-      <c r="G14" s="1"/>
-      <c r="I14" s="1"/>
-    </row>
+      <c r="I10" s="1">
+        <v>1</v>
+      </c>
+      <c r="J10" s="1">
+        <v>0</v>
+      </c>
+      <c r="K10" s="1">
+        <v>0</v>
+      </c>
+      <c r="L10" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" ht="16" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2783,13 +2753,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE56D5FD-8E52-0840-8A94-633BC2D1E65A}">
   <dimension ref="A1:L19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H17" sqref="H17"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="16384" width="10.83203125" style="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>46</v>
       </c>
@@ -2806,7 +2777,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="2" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>46</v>
       </c>
@@ -2823,15 +2794,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A3" s="1"/>
-      <c r="B3" s="1"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
-      <c r="G3" s="1"/>
-    </row>
-    <row r="4" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>52</v>
       </c>
@@ -2848,7 +2811,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="5" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>52</v>
       </c>
@@ -2865,7 +2828,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="6" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>52</v>
       </c>
@@ -2882,8 +2845,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="7" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="8" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>57</v>
       </c>
@@ -2928,7 +2890,7 @@
       <c r="B9" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C9">
+      <c r="C9" s="1">
         <v>1</v>
       </c>
       <c r="D9" s="1" t="s">
@@ -2940,20 +2902,19 @@
       <c r="F9" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="G9" s="1"/>
       <c r="H9" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="I9">
-        <v>1</v>
-      </c>
-      <c r="J9">
-        <v>0</v>
-      </c>
-      <c r="K9">
-        <v>0</v>
-      </c>
-      <c r="L9">
+      <c r="I9" s="1">
+        <v>1</v>
+      </c>
+      <c r="J9" s="1">
+        <v>0</v>
+      </c>
+      <c r="K9" s="1">
+        <v>0</v>
+      </c>
+      <c r="L9" s="1">
         <v>0</v>
       </c>
     </row>
@@ -2964,7 +2925,7 @@
       <c r="B10" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C10">
+      <c r="C10" s="1">
         <v>1</v>
       </c>
       <c r="D10" s="1" t="s">
@@ -2973,21 +2934,19 @@
       <c r="E10" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="F10" s="1"/>
-      <c r="G10" s="1"/>
-      <c r="H10" t="s">
+      <c r="H10" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="I10">
-        <v>1</v>
-      </c>
-      <c r="J10">
-        <v>0</v>
-      </c>
-      <c r="K10">
-        <v>0</v>
-      </c>
-      <c r="L10">
+      <c r="I10" s="1">
+        <v>1</v>
+      </c>
+      <c r="J10" s="1">
+        <v>0</v>
+      </c>
+      <c r="K10" s="1">
+        <v>0</v>
+      </c>
+      <c r="L10" s="1">
         <v>0</v>
       </c>
     </row>
@@ -2998,7 +2957,7 @@
       <c r="B11" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C11">
+      <c r="C11" s="1">
         <v>2</v>
       </c>
       <c r="D11" s="1" t="s">
@@ -3010,24 +2969,23 @@
       <c r="F11" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="G11" s="1"/>
-      <c r="H11" t="s">
+      <c r="H11" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="I11">
-        <v>1</v>
-      </c>
-      <c r="J11">
-        <v>0</v>
-      </c>
-      <c r="K11">
-        <v>0</v>
-      </c>
-      <c r="L11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" s="1" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I11" s="1">
+        <v>1</v>
+      </c>
+      <c r="J11" s="1">
+        <v>0</v>
+      </c>
+      <c r="K11" s="1">
+        <v>0</v>
+      </c>
+      <c r="L11" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>57</v>
       </c>
@@ -3049,10 +3007,10 @@
       <c r="G12" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="H12" t="s">
+      <c r="H12" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="I12">
+      <c r="I12" s="1">
         <v>1</v>
       </c>
       <c r="J12" s="1" t="s">
@@ -3065,7 +3023,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="13" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>57</v>
       </c>
@@ -3084,7 +3042,7 @@
       <c r="F13" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="H13" t="s">
+      <c r="H13" s="1" t="s">
         <v>19</v>
       </c>
       <c r="I13" s="1" t="s">
@@ -3107,7 +3065,7 @@
       <c r="B14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C14">
+      <c r="C14" s="1">
         <v>2</v>
       </c>
       <c r="D14" s="1" t="s">
@@ -3122,19 +3080,19 @@
       <c r="G14" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="H14" t="s">
+      <c r="H14" s="1" t="s">
         <v>19</v>
       </c>
       <c r="I14" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="J14">
-        <v>0</v>
-      </c>
-      <c r="K14">
-        <v>0</v>
-      </c>
-      <c r="L14">
+      <c r="J14" s="1">
+        <v>0</v>
+      </c>
+      <c r="K14" s="1">
+        <v>0</v>
+      </c>
+      <c r="L14" s="1">
         <v>0</v>
       </c>
     </row>
@@ -3145,7 +3103,7 @@
       <c r="B15" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C15">
+      <c r="C15" s="1">
         <v>2</v>
       </c>
       <c r="D15" s="1" t="s">
@@ -3154,19 +3112,19 @@
       <c r="E15" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="H15" t="s">
+      <c r="H15" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="I15">
-        <v>1</v>
-      </c>
-      <c r="J15">
-        <v>0</v>
-      </c>
-      <c r="K15">
-        <v>0</v>
-      </c>
-      <c r="L15">
+      <c r="I15" s="1">
+        <v>1</v>
+      </c>
+      <c r="J15" s="1">
+        <v>0</v>
+      </c>
+      <c r="K15" s="1">
+        <v>0</v>
+      </c>
+      <c r="L15" s="1">
         <v>1</v>
       </c>
     </row>
@@ -3177,7 +3135,7 @@
       <c r="B16" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C16">
+      <c r="C16" s="1">
         <v>2</v>
       </c>
       <c r="D16" s="1" t="s">
@@ -3195,20 +3153,20 @@
       <c r="H16" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="I16">
-        <v>1</v>
-      </c>
-      <c r="J16">
-        <v>0</v>
-      </c>
-      <c r="K16">
-        <v>0</v>
-      </c>
-      <c r="L16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" s="1" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I16" s="1">
+        <v>1</v>
+      </c>
+      <c r="J16" s="1">
+        <v>0</v>
+      </c>
+      <c r="K16" s="1">
+        <v>0</v>
+      </c>
+      <c r="L16" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
         <v>75</v>
       </c>
@@ -3240,7 +3198,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="19" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
         <v>75</v>
       </c>
@@ -3278,13 +3236,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8BEE13DE-AFDA-0A46-9F88-F04F99BF5FBA}">
   <dimension ref="A1:L18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="7.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="13.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="16.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="6.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="3.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="3.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="10.83203125" style="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>46</v>
       </c>
@@ -3301,7 +3270,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="2" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>46</v>
       </c>
@@ -3318,15 +3287,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A3" s="1"/>
-      <c r="B3" s="1"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
-      <c r="G3" s="1"/>
-    </row>
-    <row r="4" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>52</v>
       </c>
@@ -3343,7 +3304,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="5" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>52</v>
       </c>
@@ -3360,7 +3321,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="6" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>52</v>
       </c>
@@ -3377,8 +3338,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="7" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="8" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>57</v>
       </c>
@@ -3423,7 +3383,7 @@
       <c r="B9" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C9">
+      <c r="C9" s="1">
         <v>1</v>
       </c>
       <c r="D9" s="1" t="s">
@@ -3438,19 +3398,19 @@
       <c r="G9" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="H9" t="s">
+      <c r="H9" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="I9">
-        <v>1</v>
-      </c>
-      <c r="J9">
-        <v>0</v>
-      </c>
-      <c r="K9">
-        <v>0</v>
-      </c>
-      <c r="L9">
+      <c r="I9" s="1">
+        <v>1</v>
+      </c>
+      <c r="J9" s="1">
+        <v>0</v>
+      </c>
+      <c r="K9" s="1">
+        <v>0</v>
+      </c>
+      <c r="L9" s="1">
         <v>0</v>
       </c>
     </row>
@@ -3461,7 +3421,7 @@
       <c r="B10" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C10">
+      <c r="C10" s="1">
         <v>1</v>
       </c>
       <c r="D10" s="1" t="s">
@@ -3473,20 +3433,19 @@
       <c r="F10" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="G10" s="1"/>
-      <c r="H10" t="s">
+      <c r="H10" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="I10">
-        <v>0</v>
-      </c>
-      <c r="J10">
-        <v>1</v>
-      </c>
-      <c r="K10">
-        <v>0</v>
-      </c>
-      <c r="L10">
+      <c r="I10" s="1">
+        <v>0</v>
+      </c>
+      <c r="J10" s="1">
+        <v>1</v>
+      </c>
+      <c r="K10" s="1">
+        <v>0</v>
+      </c>
+      <c r="L10" s="1">
         <v>0</v>
       </c>
     </row>
@@ -3497,7 +3456,7 @@
       <c r="B11" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C11">
+      <c r="C11" s="1">
         <v>1</v>
       </c>
       <c r="D11" s="1" t="s">
@@ -3506,25 +3465,23 @@
       <c r="E11" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="F11" s="1"/>
-      <c r="G11" s="1"/>
       <c r="H11" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="I11">
-        <v>1</v>
-      </c>
-      <c r="J11">
-        <v>0</v>
-      </c>
-      <c r="K11">
-        <v>0</v>
-      </c>
-      <c r="L11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" s="1" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I11" s="1">
+        <v>1</v>
+      </c>
+      <c r="J11" s="1">
+        <v>0</v>
+      </c>
+      <c r="K11" s="1">
+        <v>0</v>
+      </c>
+      <c r="L11" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>57</v>
       </c>
@@ -3549,7 +3506,7 @@
       <c r="H12" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="I12">
+      <c r="I12" s="1">
         <v>1</v>
       </c>
       <c r="J12" s="1" t="s">
@@ -3562,7 +3519,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="13" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>57</v>
       </c>
@@ -3607,7 +3564,7 @@
       <c r="B14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C14">
+      <c r="C14" s="1">
         <v>2</v>
       </c>
       <c r="D14" s="1" t="s">
@@ -3616,20 +3573,19 @@
       <c r="E14" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="G14" s="1"/>
       <c r="H14" s="1" t="s">
         <v>45</v>
       </c>
       <c r="I14" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="J14">
-        <v>0</v>
-      </c>
-      <c r="K14">
-        <v>0</v>
-      </c>
-      <c r="L14">
+      <c r="J14" s="1">
+        <v>0</v>
+      </c>
+      <c r="K14" s="1">
+        <v>0</v>
+      </c>
+      <c r="L14" s="1">
         <v>0</v>
       </c>
     </row>
@@ -3640,7 +3596,7 @@
       <c r="B15" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C15">
+      <c r="C15" s="1">
         <v>2</v>
       </c>
       <c r="D15" s="1" t="s">
@@ -3658,20 +3614,20 @@
       <c r="H15" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="I15">
-        <v>1</v>
-      </c>
-      <c r="J15">
-        <v>0</v>
-      </c>
-      <c r="K15">
-        <v>0</v>
-      </c>
-      <c r="L15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" s="1" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I15" s="1">
+        <v>1</v>
+      </c>
+      <c r="J15" s="1">
+        <v>0</v>
+      </c>
+      <c r="K15" s="1">
+        <v>0</v>
+      </c>
+      <c r="L15" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>75</v>
       </c>
@@ -3703,7 +3659,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="18" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
         <v>75</v>
       </c>
@@ -3716,7 +3672,7 @@
       <c r="D18" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="E18" t="s">
+      <c r="E18" s="1" t="s">
         <v>42</v>
       </c>
       <c r="G18" s="1" t="s">
@@ -3741,13 +3697,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C895652E-48E1-C844-8019-F7FEE084C16E}">
   <dimension ref="A1:L13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="7.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="19.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="15.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="6.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="3.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="3.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="10.83203125" style="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>46</v>
       </c>
@@ -3764,7 +3731,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="2" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>46</v>
       </c>
@@ -3781,15 +3748,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A3" s="1"/>
-      <c r="B3" s="1"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
-      <c r="G3" s="1"/>
-    </row>
-    <row r="4" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>52</v>
       </c>
@@ -3806,7 +3765,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="5" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>52</v>
       </c>
@@ -3823,7 +3782,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="6" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>52</v>
       </c>
@@ -3840,8 +3799,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="7" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="8" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>57</v>
       </c>
@@ -3886,7 +3844,7 @@
       <c r="B9" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C9">
+      <c r="C9" s="1">
         <v>1</v>
       </c>
       <c r="D9" s="1" t="s">
@@ -3898,20 +3856,19 @@
       <c r="F9" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="G9" s="1"/>
       <c r="H9" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="I9">
-        <v>1</v>
-      </c>
-      <c r="J9">
-        <v>0</v>
-      </c>
-      <c r="K9">
-        <v>0</v>
-      </c>
-      <c r="L9">
+      <c r="I9" s="1">
+        <v>1</v>
+      </c>
+      <c r="J9" s="1">
+        <v>0</v>
+      </c>
+      <c r="K9" s="1">
+        <v>0</v>
+      </c>
+      <c r="L9" s="1">
         <v>0</v>
       </c>
     </row>
@@ -3922,7 +3879,7 @@
       <c r="B10" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C10">
+      <c r="C10" s="1">
         <v>1</v>
       </c>
       <c r="D10" s="1" t="s">
@@ -3934,24 +3891,23 @@
       <c r="F10" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="G10" s="1"/>
       <c r="H10" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="I10">
-        <v>1</v>
-      </c>
-      <c r="J10">
-        <v>0</v>
-      </c>
-      <c r="K10">
-        <v>0</v>
-      </c>
-      <c r="L10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" s="1" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I10" s="1">
+        <v>1</v>
+      </c>
+      <c r="J10" s="1">
+        <v>0</v>
+      </c>
+      <c r="K10" s="1">
+        <v>0</v>
+      </c>
+      <c r="L10" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>75</v>
       </c>
@@ -3983,7 +3939,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="13" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>75</v>
       </c>
@@ -3996,7 +3952,7 @@
       <c r="D13" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="E13" t="s">
+      <c r="E13" s="1" t="s">
         <v>14</v>
       </c>
       <c r="G13" s="1" t="s">
@@ -4021,7 +3977,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6661E070-ACDF-7449-BCE2-262EDC741137}">
   <dimension ref="A1:E13"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>

--- a/data/xlsx/2023-24.xlsx
+++ b/data/xlsx/2023-24.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10609"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11207"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dnanto/GitHub/broomball/data/xlsx/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B1CE7F8-2EF5-554C-84F6-DBD2832BEAC8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8987B06C-D62C-CA40-980E-CAB36370A051}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="35840" windowHeight="21900" activeTab="1" xr2:uid="{8DAC862E-F4C0-924F-ACE6-62E467832A04}"/>
   </bookViews>
@@ -403,9 +403,6 @@
     <t>12:00</t>
   </si>
   <si>
-    <t>Meredith Henkleman</t>
-  </si>
-  <si>
     <t>14:10</t>
   </si>
   <si>
@@ -560,6 +557,9 @@
   </si>
   <si>
     <t>2023-01-17</t>
+  </si>
+  <si>
+    <t>Meredith Henkelman</t>
   </si>
 </sst>
 </file>
@@ -1082,7 +1082,7 @@
         <v>3</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>54</v>
@@ -1099,7 +1099,7 @@
         <v>7</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>53</v>
@@ -1164,7 +1164,7 @@
         <v>43</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>116</v>
+        <v>168</v>
       </c>
       <c r="G9" s="1" t="s">
         <v>19</v>
@@ -1236,7 +1236,7 @@
         <v>54</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E12" s="1" t="s">
         <v>34</v>
@@ -1265,13 +1265,13 @@
         <v>2</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="E13" s="1" t="s">
         <v>25</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="H13">
         <v>2</v>
@@ -1338,7 +1338,7 @@
         <v>5</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>51</v>
@@ -1380,7 +1380,7 @@
         <v>54</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>34</v>
@@ -1394,7 +1394,7 @@
         <v>5</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>56</v>
@@ -1453,7 +1453,7 @@
         <v>2</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>42</v>
@@ -1489,10 +1489,10 @@
         <v>2</v>
       </c>
       <c r="D10" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="E10" s="1" t="s">
         <v>123</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>124</v>
       </c>
       <c r="F10" s="1" t="s">
         <v>17</v>
@@ -1587,7 +1587,7 @@
         <v>7</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>51</v>
@@ -1626,10 +1626,10 @@
         <v>10</v>
       </c>
       <c r="C5" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="D5" s="1" t="s">
         <v>125</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>126</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>25</v>
@@ -1702,7 +1702,7 @@
         <v>1</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>34</v>
@@ -1740,7 +1740,7 @@
         <v>2</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E10" s="1" t="s">
         <v>6</v>
@@ -1774,7 +1774,7 @@
         <v>2</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E11" s="1" t="s">
         <v>6</v>
@@ -1810,7 +1810,7 @@
         <v>54</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E12" s="1" t="s">
         <v>13</v>
@@ -1900,7 +1900,7 @@
         <v>10</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>51</v>
@@ -1956,10 +1956,10 @@
         <v>10</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>19</v>
@@ -2015,7 +2015,7 @@
         <v>1</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>12</v>
@@ -2049,7 +2049,7 @@
         <v>2</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E10" s="1" t="s">
         <v>4</v>
@@ -2085,13 +2085,13 @@
         <v>2</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E11" s="1" t="s">
         <v>16</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="G11" s="1"/>
       <c r="H11" s="1" t="s">
@@ -2121,10 +2121,10 @@
         <v>54</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F12" s="1" t="s">
         <v>9</v>
@@ -2209,7 +2209,7 @@
         <v>7</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>51</v>
@@ -2240,7 +2240,7 @@
         <v>5</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>54</v>
@@ -2257,7 +2257,7 @@
         <v>7</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>53</v>
@@ -2344,7 +2344,7 @@
         <v>2</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E10" s="1" t="s">
         <v>6</v>
@@ -2379,7 +2379,7 @@
         <v>2</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E11" s="1" t="s">
         <v>4</v>
@@ -2414,7 +2414,7 @@
         <v>54</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E12" s="1" t="s">
         <v>6</v>
@@ -2446,10 +2446,10 @@
         <v>54</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F13" s="1" t="s">
         <v>36</v>
@@ -2475,7 +2475,7 @@
     </row>
     <row r="15" spans="1:12" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>1</v>
@@ -2516,13 +2516,13 @@
         <v>54</v>
       </c>
       <c r="D16" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="G16" s="1" t="s">
         <v>140</v>
-      </c>
-      <c r="E16" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="G16" s="1" t="s">
-        <v>141</v>
       </c>
       <c r="H16" s="1" t="s">
         <v>54</v>
@@ -2578,7 +2578,7 @@
         <v>7</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>51</v>
@@ -2626,10 +2626,10 @@
         <v>7</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>25</v>
@@ -2684,7 +2684,7 @@
         <v>1</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>38</v>
@@ -2722,7 +2722,7 @@
         <v>2</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E10" s="1" t="s">
         <v>44</v>
@@ -2788,7 +2788,7 @@
         <v>10</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>51</v>
@@ -2836,7 +2836,7 @@
         <v>10</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>69</v>
@@ -2894,7 +2894,7 @@
         <v>1</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>44</v>
@@ -2929,7 +2929,7 @@
         <v>1</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E10" s="1" t="s">
         <v>17</v>
@@ -2961,7 +2961,7 @@
         <v>2</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E11" s="1" t="s">
         <v>24</v>
@@ -2996,7 +2996,7 @@
         <v>54</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E12" s="1" t="s">
         <v>16</v>
@@ -3034,7 +3034,7 @@
         <v>54</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E13" s="1" t="s">
         <v>17</v>
@@ -3069,7 +3069,7 @@
         <v>2</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="E14" s="1" t="s">
         <v>24</v>
@@ -3107,7 +3107,7 @@
         <v>2</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="E15" s="1" t="s">
         <v>37</v>
@@ -3139,7 +3139,7 @@
         <v>2</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E16" s="1" t="s">
         <v>27</v>
@@ -3215,7 +3215,7 @@
         <v>33</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="H19" s="1" t="s">
         <v>54</v>
@@ -3281,7 +3281,7 @@
         <v>7</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>51</v>
@@ -3312,7 +3312,7 @@
         <v>10</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>69</v>
@@ -3387,7 +3387,7 @@
         <v>1</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>42</v>
@@ -3425,7 +3425,7 @@
         <v>1</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="E10" s="1" t="s">
         <v>34</v>
@@ -3460,7 +3460,7 @@
         <v>1</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E11" s="1" t="s">
         <v>24</v>
@@ -3492,7 +3492,7 @@
         <v>53</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E12" s="1" t="s">
         <v>9</v>
@@ -3530,7 +3530,7 @@
         <v>54</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E13" s="1" t="s">
         <v>42</v>
@@ -3568,7 +3568,7 @@
         <v>2</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="E14" s="1" t="s">
         <v>16</v>
@@ -3600,7 +3600,7 @@
         <v>2</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="E15" s="1" t="s">
         <v>16</v>
@@ -3670,13 +3670,13 @@
         <v>53</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="E18" s="1" t="s">
         <v>42</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="H18" s="1" t="s">
         <v>54</v>
@@ -3742,7 +3742,7 @@
         <v>3</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>51</v>
@@ -3793,7 +3793,7 @@
         <v>68</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>34</v>
@@ -3848,7 +3848,7 @@
         <v>1</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>44</v>
@@ -3883,7 +3883,7 @@
         <v>1</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E10" s="1" t="s">
         <v>27</v>
@@ -3950,7 +3950,7 @@
         <v>53</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E13" s="1" t="s">
         <v>14</v>
@@ -4045,7 +4045,7 @@
         <v>6</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>17</v>
@@ -4070,7 +4070,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>23</v>
@@ -4123,7 +4123,7 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>116</v>
+        <v>168</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>37</v>
@@ -4215,7 +4215,7 @@
         <v>5</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>51</v>
@@ -4401,7 +4401,7 @@
         <v>3</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>51</v>
@@ -4688,7 +4688,7 @@
         <v>7</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>51</v>
@@ -5068,7 +5068,7 @@
         <v>3</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>51</v>
@@ -5301,7 +5301,7 @@
         <v>31</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="H10" s="1" t="s">
         <v>19</v>
@@ -5819,7 +5819,7 @@
         <v>12</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="G8" s="1" t="s">
         <v>19</v>

--- a/data/xlsx/2023-24.xlsx
+++ b/data/xlsx/2023-24.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dnanto/GitHub/broomball/data/xlsx/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8987B06C-D62C-CA40-980E-CAB36370A051}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3819CE2-B960-BE4E-9139-8EA1C3559605}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="35840" windowHeight="21900" activeTab="1" xr2:uid="{8DAC862E-F4C0-924F-ACE6-62E467832A04}"/>
   </bookViews>
@@ -136,9 +136,6 @@
     <t>Isaac Rattey</t>
   </si>
   <si>
-    <t>Katy Bright</t>
-  </si>
-  <si>
     <t>Mike Campbell</t>
   </si>
   <si>
@@ -560,6 +557,9 @@
   </si>
   <si>
     <t>Meredith Henkelman</t>
+  </si>
+  <si>
+    <t>Katy Meyvn</t>
   </si>
 </sst>
 </file>
@@ -938,7 +938,7 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>3</v>
@@ -949,7 +949,7 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>5</v>
@@ -960,7 +960,7 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>7</v>
@@ -971,7 +971,7 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>10</v>
@@ -982,10 +982,10 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
   </sheetData>
@@ -1017,24 +1017,24 @@
   <sheetData>
     <row r="1" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>49</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="2" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>3</v>
@@ -1043,10 +1043,10 @@
         <v>7</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.2">
@@ -1059,97 +1059,97 @@
     </row>
     <row r="4" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C4" s="1" t="s">
+      <c r="D4" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="E4" s="1" t="s">
         <v>54</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="5" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>3</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="6" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="7" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="8" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C8" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="B8" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C8" s="1" t="s">
+      <c r="D8" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="D8" s="1" t="s">
+      <c r="E8" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="E8" s="1" t="s">
+      <c r="F8" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="F8" s="1" t="s">
+      <c r="G8" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="G8" s="1" t="s">
+      <c r="H8" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="I8" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="H8" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="I8" s="1" t="s">
+      <c r="J8" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="J8" s="1" t="s">
+      <c r="K8" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="K8" s="1" t="s">
+      <c r="L8" s="1" t="s">
         <v>65</v>
-      </c>
-      <c r="L8" s="1" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>3</v>
@@ -1158,19 +1158,19 @@
         <v>2</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="G9" s="1" t="s">
         <v>19</v>
       </c>
       <c r="H9" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -1195,68 +1195,68 @@
     </row>
     <row r="11" spans="1:12" s="1" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="E11" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="B11" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="E11" s="1" t="s">
+      <c r="F11" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="F11" s="1" t="s">
+      <c r="G11" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="G11" s="1" t="s">
+      <c r="H11" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="H11" s="1" t="s">
+      <c r="I11" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="J11" s="1" t="s">
         <v>79</v>
-      </c>
-      <c r="I11" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="J11" s="1" t="s">
-        <v>80</v>
       </c>
     </row>
     <row r="12" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>3</v>
@@ -1265,13 +1265,13 @@
         <v>2</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E13" s="1" t="s">
         <v>25</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="H13">
         <v>2</v>
@@ -1312,24 +1312,24 @@
   <sheetData>
     <row r="1" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>49</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="2" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>3</v>
@@ -1338,10 +1338,10 @@
         <v>5</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.2">
@@ -1354,50 +1354,50 @@
     </row>
     <row r="4" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C4" s="1" t="s">
+      <c r="D4" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="E4" s="1" t="s">
         <v>54</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="5" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>3</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="6" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>25</v>
@@ -1406,45 +1406,45 @@
     <row r="7" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="8" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C8" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="B8" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C8" s="1" t="s">
+      <c r="D8" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="D8" s="1" t="s">
+      <c r="E8" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="E8" s="1" t="s">
+      <c r="F8" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="F8" s="1" t="s">
+      <c r="G8" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="G8" s="1" t="s">
+      <c r="H8" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="I8" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="H8" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="I8" s="1" t="s">
+      <c r="J8" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="J8" s="1" t="s">
+      <c r="K8" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="K8" s="1" t="s">
+      <c r="L8" s="1" t="s">
         <v>65</v>
-      </c>
-      <c r="L8" s="1" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>3</v>
@@ -1453,17 +1453,17 @@
         <v>2</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E9" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="F9" s="1" t="s">
         <v>42</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>43</v>
       </c>
       <c r="G9" s="1"/>
       <c r="H9" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I9">
         <v>1</v>
@@ -1480,7 +1480,7 @@
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>5</v>
@@ -1489,10 +1489,10 @@
         <v>2</v>
       </c>
       <c r="D10" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="E10" s="1" t="s">
         <v>122</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>123</v>
       </c>
       <c r="F10" s="1" t="s">
         <v>17</v>
@@ -1561,24 +1561,24 @@
   <sheetData>
     <row r="1" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>49</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="2" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>10</v>
@@ -1587,10 +1587,10 @@
         <v>7</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.2">
@@ -1603,33 +1603,33 @@
     </row>
     <row r="4" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C4" s="1" t="s">
+      <c r="D4" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="E4" s="1" t="s">
         <v>54</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="5" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C5" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="D5" s="1" t="s">
         <v>124</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>125</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>25</v>
@@ -1637,63 +1637,63 @@
     </row>
     <row r="6" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="7" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="8" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C8" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="B8" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C8" s="1" t="s">
+      <c r="D8" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="D8" s="1" t="s">
+      <c r="E8" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="E8" s="1" t="s">
+      <c r="F8" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="F8" s="1" t="s">
+      <c r="G8" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="G8" s="1" t="s">
+      <c r="H8" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="I8" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="H8" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="I8" s="1" t="s">
+      <c r="J8" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="J8" s="1" t="s">
+      <c r="K8" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="K8" s="1" t="s">
+      <c r="L8" s="1" t="s">
         <v>65</v>
-      </c>
-      <c r="L8" s="1" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>7</v>
@@ -1702,19 +1702,19 @@
         <v>1</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G9" s="1" t="s">
         <v>18</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="I9">
         <v>1</v>
@@ -1731,7 +1731,7 @@
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>10</v>
@@ -1740,7 +1740,7 @@
         <v>2</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E10" s="1" t="s">
         <v>6</v>
@@ -1765,7 +1765,7 @@
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>10</v>
@@ -1774,7 +1774,7 @@
         <v>2</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E11" s="1" t="s">
         <v>6</v>
@@ -1801,28 +1801,28 @@
     </row>
     <row r="12" spans="1:12" s="1" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E12" s="1" t="s">
         <v>13</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="I12">
         <v>1</v>
@@ -1874,24 +1874,24 @@
   <sheetData>
     <row r="1" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>49</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="2" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>3</v>
@@ -1900,10 +1900,10 @@
         <v>10</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.2">
@@ -1916,50 +1916,50 @@
     </row>
     <row r="4" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C4" s="1" t="s">
+      <c r="D4" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="E4" s="1" t="s">
         <v>54</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="5" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>3</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="6" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>19</v>
@@ -1968,45 +1968,45 @@
     <row r="7" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="8" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C8" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="B8" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C8" s="1" t="s">
+      <c r="D8" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="D8" s="1" t="s">
+      <c r="E8" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="E8" s="1" t="s">
+      <c r="F8" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="F8" s="1" t="s">
+      <c r="G8" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="G8" s="1" t="s">
+      <c r="H8" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="I8" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="H8" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="I8" s="1" t="s">
+      <c r="J8" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="J8" s="1" t="s">
+      <c r="K8" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="K8" s="1" t="s">
+      <c r="L8" s="1" t="s">
         <v>65</v>
-      </c>
-      <c r="L8" s="1" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>3</v>
@@ -2015,7 +2015,7 @@
         <v>1</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>12</v>
@@ -2023,7 +2023,7 @@
       <c r="F9" s="1"/>
       <c r="G9" s="1"/>
       <c r="H9" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I9">
         <v>1</v>
@@ -2040,7 +2040,7 @@
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>3</v>
@@ -2049,7 +2049,7 @@
         <v>2</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E10" s="1" t="s">
         <v>4</v>
@@ -2059,7 +2059,7 @@
       </c>
       <c r="G10" s="1"/>
       <c r="H10" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I10">
         <v>1</v>
@@ -2076,7 +2076,7 @@
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>10</v>
@@ -2085,13 +2085,13 @@
         <v>2</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E11" s="1" t="s">
         <v>16</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="G11" s="1"/>
       <c r="H11" s="1" t="s">
@@ -2112,19 +2112,19 @@
     </row>
     <row r="12" spans="1:12" s="1" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F12" s="1" t="s">
         <v>9</v>
@@ -2136,13 +2136,13 @@
         <v>1</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="K12" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="L12" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="13" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
@@ -2183,24 +2183,24 @@
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>49</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>5</v>
@@ -2209,58 +2209,58 @@
         <v>7</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C4" s="1" t="s">
+      <c r="D4" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="E4" s="1" t="s">
         <v>54</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>25</v>
@@ -2268,45 +2268,45 @@
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C8" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="B8" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C8" s="1" t="s">
+      <c r="D8" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="D8" s="1" t="s">
+      <c r="E8" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="E8" s="1" t="s">
+      <c r="F8" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="F8" s="1" t="s">
+      <c r="G8" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="G8" s="1" t="s">
+      <c r="H8" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="I8" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="H8" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="I8" s="1" t="s">
+      <c r="J8" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="J8" s="1" t="s">
+      <c r="K8" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="K8" s="1" t="s">
+      <c r="L8" s="1" t="s">
         <v>65</v>
-      </c>
-      <c r="L8" s="1" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>7</v>
@@ -2315,7 +2315,7 @@
         <v>1</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H9" s="1" t="s">
         <v>25</v>
@@ -2335,7 +2335,7 @@
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>5</v>
@@ -2344,7 +2344,7 @@
         <v>2</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E10" s="1" t="s">
         <v>6</v>
@@ -2353,7 +2353,7 @@
         <v>14</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I10" s="1">
         <v>1</v>
@@ -2370,7 +2370,7 @@
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>7</v>
@@ -2379,7 +2379,7 @@
         <v>2</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E11" s="1" t="s">
         <v>4</v>
@@ -2405,133 +2405,133 @@
     </row>
     <row r="12" spans="1:12" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E12" s="1" t="s">
         <v>6</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I12" s="1">
         <v>1</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="K12" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="L12" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="13" spans="1:12" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G13" s="1" t="s">
         <v>6</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I13" s="1">
         <v>1</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="K13" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="L13" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="15" spans="1:12" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C15" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D15" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="D15" s="1" t="s">
-        <v>59</v>
-      </c>
       <c r="E15" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="F15" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="F15" s="1" t="s">
+      <c r="G15" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="G15" s="1" t="s">
+      <c r="H15" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="H15" s="1" t="s">
+      <c r="I15" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="J15" s="1" t="s">
         <v>79</v>
-      </c>
-      <c r="I15" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="J15" s="1" t="s">
-        <v>80</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D16" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="G16" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="E16" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="G16" s="1" t="s">
-        <v>140</v>
-      </c>
       <c r="H16" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="I16" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
   </sheetData>
@@ -2552,24 +2552,24 @@
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>49</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>5</v>
@@ -2578,58 +2578,58 @@
         <v>7</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C4" s="1" t="s">
+      <c r="D4" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="E4" s="1" t="s">
         <v>54</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C5" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="D5" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="D5" s="1" t="s">
-        <v>68</v>
-      </c>
       <c r="E5" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>25</v>
@@ -2637,45 +2637,45 @@
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C8" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="B8" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C8" s="1" t="s">
+      <c r="D8" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="D8" s="1" t="s">
+      <c r="E8" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="E8" s="1" t="s">
+      <c r="F8" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="F8" s="1" t="s">
+      <c r="G8" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="G8" s="1" t="s">
+      <c r="H8" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="I8" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="H8" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="I8" s="1" t="s">
+      <c r="J8" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="J8" s="1" t="s">
+      <c r="K8" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="K8" s="1" t="s">
+      <c r="L8" s="1" t="s">
         <v>65</v>
-      </c>
-      <c r="L8" s="1" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>7</v>
@@ -2684,10 +2684,10 @@
         <v>1</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F9" s="1" t="s">
         <v>23</v>
@@ -2713,7 +2713,7 @@
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>7</v>
@@ -2722,10 +2722,10 @@
         <v>2</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H10" s="1" t="s">
         <v>25</v>
@@ -2762,24 +2762,24 @@
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>49</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>3</v>
@@ -2788,58 +2788,58 @@
         <v>10</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C4" s="1" t="s">
+      <c r="D4" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="E4" s="1" t="s">
         <v>54</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>3</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>19</v>
@@ -2847,45 +2847,45 @@
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C8" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="B8" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C8" s="1" t="s">
+      <c r="D8" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="D8" s="1" t="s">
+      <c r="E8" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="E8" s="1" t="s">
+      <c r="F8" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="F8" s="1" t="s">
+      <c r="G8" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="G8" s="1" t="s">
+      <c r="H8" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="I8" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="H8" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="I8" s="1" t="s">
+      <c r="J8" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="J8" s="1" t="s">
+      <c r="K8" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="K8" s="1" t="s">
+      <c r="L8" s="1" t="s">
         <v>65</v>
-      </c>
-      <c r="L8" s="1" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>3</v>
@@ -2894,16 +2894,16 @@
         <v>1</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>27</v>
+        <v>168</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I9" s="1">
         <v>1</v>
@@ -2920,7 +2920,7 @@
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>10</v>
@@ -2929,7 +2929,7 @@
         <v>1</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E10" s="1" t="s">
         <v>17</v>
@@ -2952,7 +2952,7 @@
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>10</v>
@@ -2961,7 +2961,7 @@
         <v>2</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E11" s="1" t="s">
         <v>24</v>
@@ -2987,22 +2987,22 @@
     </row>
     <row r="12" spans="1:12" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E12" s="1" t="s">
         <v>16</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G12" s="1" t="s">
         <v>14</v>
@@ -3014,53 +3014,53 @@
         <v>1</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="K12" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="L12" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E13" s="1" t="s">
         <v>17</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H13" s="1" t="s">
         <v>19</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="K13" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="L13" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>10</v>
@@ -3069,13 +3069,13 @@
         <v>2</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E14" s="1" t="s">
         <v>24</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G14" s="1" t="s">
         <v>16</v>
@@ -3084,7 +3084,7 @@
         <v>19</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J14" s="1">
         <v>0</v>
@@ -3098,7 +3098,7 @@
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>10</v>
@@ -3107,10 +3107,10 @@
         <v>2</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H15" s="1" t="s">
         <v>19</v>
@@ -3130,7 +3130,7 @@
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>3</v>
@@ -3139,10 +3139,10 @@
         <v>2</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>27</v>
+        <v>168</v>
       </c>
       <c r="F16" s="1" t="s">
         <v>4</v>
@@ -3151,7 +3151,7 @@
         <v>6</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I16" s="1">
         <v>1</v>
@@ -3168,63 +3168,63 @@
     </row>
     <row r="18" spans="1:10" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="E18" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="B18" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="E18" s="1" t="s">
+      <c r="F18" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="F18" s="1" t="s">
+      <c r="G18" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="G18" s="1" t="s">
+      <c r="H18" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="H18" s="1" t="s">
+      <c r="I18" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="J18" s="1" t="s">
         <v>79</v>
-      </c>
-      <c r="I18" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="J18" s="1" t="s">
-        <v>80</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="I19" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
   </sheetData>
@@ -3255,24 +3255,24 @@
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>49</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>10</v>
@@ -3281,104 +3281,104 @@
         <v>7</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C4" s="1" t="s">
+      <c r="D4" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="E4" s="1" t="s">
         <v>54</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C8" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="B8" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C8" s="1" t="s">
+      <c r="D8" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="D8" s="1" t="s">
+      <c r="E8" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="E8" s="1" t="s">
+      <c r="F8" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="F8" s="1" t="s">
+      <c r="G8" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="G8" s="1" t="s">
+      <c r="H8" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="I8" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="H8" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="I8" s="1" t="s">
+      <c r="J8" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="J8" s="1" t="s">
+      <c r="K8" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="K8" s="1" t="s">
+      <c r="L8" s="1" t="s">
         <v>65</v>
-      </c>
-      <c r="L8" s="1" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>10</v>
@@ -3387,10 +3387,10 @@
         <v>1</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F9" s="1" t="s">
         <v>16</v>
@@ -3399,7 +3399,7 @@
         <v>24</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I9" s="1">
         <v>1</v>
@@ -3416,7 +3416,7 @@
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>7</v>
@@ -3425,16 +3425,16 @@
         <v>1</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I10" s="1">
         <v>0</v>
@@ -3451,7 +3451,7 @@
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>10</v>
@@ -3460,13 +3460,13 @@
         <v>1</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="E11" s="1" t="s">
         <v>24</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I11" s="1">
         <v>1</v>
@@ -3483,16 +3483,16 @@
     </row>
     <row r="12" spans="1:12" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E12" s="1" t="s">
         <v>9</v>
@@ -3501,65 +3501,65 @@
         <v>16</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I12" s="1">
         <v>1</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="K12" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="L12" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F13" s="1" t="s">
         <v>17</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="K13" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="L13" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>10</v>
@@ -3568,16 +3568,16 @@
         <v>2</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="E14" s="1" t="s">
         <v>16</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J14" s="1">
         <v>0</v>
@@ -3591,7 +3591,7 @@
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>10</v>
@@ -3600,19 +3600,19 @@
         <v>2</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="E15" s="1" t="s">
         <v>16</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G15" s="1" t="s">
         <v>9</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I15" s="1">
         <v>1</v>
@@ -3629,63 +3629,63 @@
     </row>
     <row r="17" spans="1:10" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="E17" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="B17" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="E17" s="1" t="s">
+      <c r="F17" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="F17" s="1" t="s">
+      <c r="G17" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="G17" s="1" t="s">
+      <c r="H17" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="H17" s="1" t="s">
+      <c r="I17" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="J17" s="1" t="s">
         <v>79</v>
-      </c>
-      <c r="I17" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="J17" s="1" t="s">
-        <v>80</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C18" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="H18" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="D18" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="E18" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="G18" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="H18" s="1" t="s">
-        <v>54</v>
-      </c>
       <c r="I18" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
   </sheetData>
@@ -3716,24 +3716,24 @@
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>49</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>5</v>
@@ -3742,41 +3742,41 @@
         <v>3</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C4" s="1" t="s">
+      <c r="D4" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="E4" s="1" t="s">
         <v>54</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>25</v>
@@ -3784,62 +3784,62 @@
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>3</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C8" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="B8" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C8" s="1" t="s">
+      <c r="D8" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="D8" s="1" t="s">
+      <c r="E8" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="E8" s="1" t="s">
+      <c r="F8" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="F8" s="1" t="s">
+      <c r="G8" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="G8" s="1" t="s">
+      <c r="H8" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="I8" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="H8" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="I8" s="1" t="s">
+      <c r="J8" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="J8" s="1" t="s">
+      <c r="K8" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="K8" s="1" t="s">
+      <c r="L8" s="1" t="s">
         <v>65</v>
-      </c>
-      <c r="L8" s="1" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>3</v>
@@ -3848,16 +3848,16 @@
         <v>1</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>27</v>
+        <v>168</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I9" s="1">
         <v>1</v>
@@ -3874,7 +3874,7 @@
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>3</v>
@@ -3883,16 +3883,16 @@
         <v>1</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>27</v>
+        <v>168</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I10" s="1">
         <v>1</v>
@@ -3909,63 +3909,63 @@
     </row>
     <row r="12" spans="1:12" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="E12" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="B12" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="E12" s="1" t="s">
+      <c r="F12" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="F12" s="1" t="s">
+      <c r="G12" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="G12" s="1" t="s">
+      <c r="H12" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="H12" s="1" t="s">
+      <c r="I12" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="J12" s="1" t="s">
         <v>79</v>
-      </c>
-      <c r="I12" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="J12" s="1" t="s">
-        <v>80</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E13" s="1" t="s">
         <v>14</v>
       </c>
       <c r="G13" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="J13" s="1" t="s">
         <v>81</v>
-      </c>
-      <c r="H13" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="I13" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="J13" s="1" t="s">
-        <v>82</v>
       </c>
     </row>
   </sheetData>
@@ -3977,7 +3977,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6661E070-ACDF-7449-BCE2-262EDC741137}">
   <dimension ref="A1:E13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
@@ -4003,7 +4005,7 @@
         <v>10</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
@@ -4020,12 +4022,12 @@
         <v>9</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>14</v>
@@ -4039,13 +4041,13 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>17</v>
@@ -4070,7 +4072,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>23</v>
@@ -4084,10 +4086,10 @@
         <v>25</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>26</v>
@@ -4095,16 +4097,16 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>27</v>
+        <v>168</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C8" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D8" s="1" t="s">
         <v>29</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
@@ -4112,51 +4114,51 @@
         <v>4</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C9" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D9" s="1" t="s">
         <v>32</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B10" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C10" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="C10" s="1" t="s">
-        <v>38</v>
-      </c>
       <c r="D10" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B11" s="1" t="s">
         <v>39</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>40</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="D12" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="D13" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
   </sheetData>
@@ -4189,24 +4191,24 @@
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>49</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>10</v>
@@ -4215,104 +4217,104 @@
         <v>5</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C4" s="1" t="s">
+      <c r="D4" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="E4" s="1" t="s">
         <v>54</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C5" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="D5" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="D5" s="1" t="s">
-        <v>68</v>
-      </c>
       <c r="E5" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C8" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="B8" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C8" s="1" t="s">
+      <c r="D8" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="D8" s="1" t="s">
+      <c r="E8" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="E8" s="1" t="s">
+      <c r="F8" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="F8" s="1" t="s">
+      <c r="G8" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="G8" s="1" t="s">
+      <c r="H8" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="I8" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="H8" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="I8" s="1" t="s">
+      <c r="J8" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="J8" s="1" t="s">
+      <c r="K8" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="K8" s="1" t="s">
+      <c r="L8" s="1" t="s">
         <v>65</v>
-      </c>
-      <c r="L8" s="1" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>5</v>
@@ -4321,16 +4323,16 @@
         <v>2</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I9" s="1">
         <v>1</v>
@@ -4375,24 +4377,24 @@
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>49</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>7</v>
@@ -4401,41 +4403,41 @@
         <v>3</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C4" s="1" t="s">
+      <c r="D4" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="E4" s="1" t="s">
         <v>54</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>25</v>
@@ -4443,62 +4445,62 @@
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>3</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C8" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="B8" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C8" s="1" t="s">
+      <c r="D8" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="D8" s="1" t="s">
+      <c r="E8" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="E8" s="1" t="s">
+      <c r="F8" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="F8" s="1" t="s">
+      <c r="G8" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="G8" s="1" t="s">
+      <c r="H8" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="I8" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="H8" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="I8" s="1" t="s">
+      <c r="J8" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="J8" s="1" t="s">
+      <c r="K8" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="K8" s="1" t="s">
+      <c r="L8" s="1" t="s">
         <v>65</v>
-      </c>
-      <c r="L8" s="1" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>7</v>
@@ -4507,13 +4509,13 @@
         <v>2</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I9" s="1">
         <v>1</v>
@@ -4530,7 +4532,7 @@
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>7</v>
@@ -4539,13 +4541,13 @@
         <v>2</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I10" s="1">
         <v>1</v>
@@ -4562,7 +4564,7 @@
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>3</v>
@@ -4571,16 +4573,16 @@
         <v>2</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F11" s="1" t="s">
         <v>4</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="H11" s="1" t="s">
         <v>25</v>
@@ -4600,7 +4602,7 @@
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>3</v>
@@ -4609,10 +4611,10 @@
         <v>2</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F12" s="1" t="s">
         <v>18</v>
@@ -4662,24 +4664,24 @@
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>49</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>10</v>
@@ -4688,53 +4690,53 @@
         <v>7</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C4" s="1" t="s">
+      <c r="D4" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="E4" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="F4" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="F4" s="1" t="s">
+      <c r="G4" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="G4" s="1" t="s">
+      <c r="H4" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="I4" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="H4" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="I4" s="1" t="s">
+      <c r="J4" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="J4" s="1" t="s">
+      <c r="K4" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="K4" s="1" t="s">
+      <c r="L4" s="1" t="s">
         <v>65</v>
-      </c>
-      <c r="L4" s="1" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>7</v>
@@ -4743,16 +4745,16 @@
         <v>1</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I5" s="1">
         <v>1</v>
@@ -4769,7 +4771,7 @@
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>7</v>
@@ -4778,19 +4780,19 @@
         <v>1</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I6" s="1">
         <v>1</v>
@@ -4807,7 +4809,7 @@
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>10</v>
@@ -4816,13 +4818,13 @@
         <v>2</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I7" s="1">
         <v>0</v>
@@ -4839,7 +4841,7 @@
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>10</v>
@@ -4848,19 +4850,19 @@
         <v>2</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>17</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G8" s="1" t="s">
         <v>16</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I8" s="1">
         <v>1</v>
@@ -4877,7 +4879,7 @@
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>10</v>
@@ -4886,10 +4888,10 @@
         <v>2</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F9" s="1" t="s">
         <v>4</v>
@@ -4898,7 +4900,7 @@
         <v>24</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I9" s="1">
         <v>1</v>
@@ -4915,7 +4917,7 @@
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>7</v>
@@ -4924,19 +4926,19 @@
         <v>2</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E10" s="1" t="s">
         <v>15</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I10" s="1">
         <v>1</v>
@@ -4953,63 +4955,63 @@
     </row>
     <row r="12" spans="1:12" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="E12" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="B12" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="E12" s="1" t="s">
+      <c r="F12" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="F12" s="1" t="s">
+      <c r="G12" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="G12" s="1" t="s">
+      <c r="H12" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="H12" s="1" t="s">
+      <c r="I12" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="J12" s="1" t="s">
         <v>79</v>
-      </c>
-      <c r="I12" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="J12" s="1" t="s">
-        <v>80</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E13" s="1" t="s">
         <v>21</v>
       </c>
       <c r="G13" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="J13" s="1" t="s">
         <v>81</v>
-      </c>
-      <c r="H13" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="I13" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="J13" s="1" t="s">
-        <v>82</v>
       </c>
     </row>
   </sheetData>
@@ -5042,24 +5044,24 @@
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>49</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>5</v>
@@ -5068,53 +5070,53 @@
         <v>3</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C4" s="1" t="s">
+      <c r="D4" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="E4" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="F4" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="F4" s="1" t="s">
+      <c r="G4" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="G4" s="1" t="s">
+      <c r="H4" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="I4" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="H4" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="I4" s="1" t="s">
+      <c r="J4" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="J4" s="1" t="s">
+      <c r="K4" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="K4" s="1" t="s">
+      <c r="L4" s="1" t="s">
         <v>65</v>
-      </c>
-      <c r="L4" s="1" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>5</v>
@@ -5123,13 +5125,13 @@
         <v>1</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H5" s="1" t="s">
         <v>19</v>
@@ -5149,7 +5151,7 @@
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>5</v>
@@ -5158,7 +5160,7 @@
         <v>2</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>6</v>
@@ -5187,7 +5189,7 @@
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>3</v>
@@ -5196,13 +5198,13 @@
         <v>2</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>12</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I7" s="1">
         <v>1</v>
@@ -5219,7 +5221,7 @@
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>5</v>
@@ -5228,7 +5230,7 @@
         <v>2</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>6</v>
@@ -5251,7 +5253,7 @@
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>5</v>
@@ -5260,7 +5262,7 @@
         <v>2</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>14</v>
@@ -5283,7 +5285,7 @@
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>5</v>
@@ -5292,16 +5294,16 @@
         <v>2</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="H10" s="1" t="s">
         <v>19</v>
@@ -5349,24 +5351,24 @@
   <sheetData>
     <row r="1" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>49</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="2" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>10</v>
@@ -5375,54 +5377,54 @@
         <v>3</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="4" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C4" s="1" t="s">
+      <c r="D4" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="E4" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="F4" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="F4" s="1" t="s">
+      <c r="G4" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="G4" s="1" t="s">
+      <c r="H4" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="I4" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="H4" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="I4" s="1" t="s">
+      <c r="J4" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="J4" s="1" t="s">
+      <c r="K4" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="K4" s="1" t="s">
+      <c r="L4" s="1" t="s">
         <v>65</v>
-      </c>
-      <c r="L4" s="1" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>10</v>
@@ -5431,7 +5433,7 @@
         <v>1</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>21</v>
@@ -5457,7 +5459,7 @@
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>3</v>
@@ -5466,15 +5468,15 @@
         <v>1</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F6" s="1"/>
       <c r="G6" s="1"/>
       <c r="H6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I6">
         <v>1</v>
@@ -5491,7 +5493,7 @@
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>10</v>
@@ -5500,7 +5502,7 @@
         <v>2</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>24</v>
@@ -5526,7 +5528,7 @@
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>10</v>
@@ -5535,10 +5537,10 @@
         <v>2</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F8" s="1" t="s">
         <v>9</v>
@@ -5562,7 +5564,7 @@
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>10</v>
@@ -5571,10 +5573,10 @@
         <v>2</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F9" s="1" t="s">
         <v>17</v>
@@ -5630,24 +5632,24 @@
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>49</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>7</v>
@@ -5656,53 +5658,53 @@
         <v>5</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C4" s="1" t="s">
+      <c r="D4" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="E4" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="F4" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="F4" s="1" t="s">
+      <c r="G4" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="G4" s="1" t="s">
+      <c r="H4" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="I4" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="H4" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="I4" s="1" t="s">
+      <c r="J4" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="J4" s="1" t="s">
+      <c r="K4" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="K4" s="1" t="s">
+      <c r="L4" s="1" t="s">
         <v>65</v>
-      </c>
-      <c r="L4" s="1" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>7</v>
@@ -5711,7 +5713,7 @@
         <v>1</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>21</v>
@@ -5734,7 +5736,7 @@
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>7</v>
@@ -5743,7 +5745,7 @@
         <v>1</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>23</v>
@@ -5752,7 +5754,7 @@
         <v>8</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I6" s="1">
         <v>1</v>
@@ -5769,7 +5771,7 @@
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>5</v>
@@ -5778,7 +5780,7 @@
         <v>2</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>12</v>
@@ -5787,7 +5789,7 @@
         <v>6</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I7" s="1">
         <v>1</v>
@@ -5804,7 +5806,7 @@
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>5</v>
@@ -5813,19 +5815,19 @@
         <v>2</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="G8" s="1" t="s">
         <v>19</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I8" s="1">
         <v>1</v>
@@ -5869,24 +5871,24 @@
   <sheetData>
     <row r="1" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>49</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="2" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>5</v>
@@ -5895,54 +5897,54 @@
         <v>10</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="4" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C4" s="1" t="s">
+      <c r="D4" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="E4" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="F4" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="F4" s="1" t="s">
+      <c r="G4" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="G4" s="1" t="s">
+      <c r="H4" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="I4" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="H4" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="I4" s="1" t="s">
+      <c r="J4" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="J4" s="1" t="s">
+      <c r="K4" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="K4" s="1" t="s">
+      <c r="L4" s="1" t="s">
         <v>65</v>
-      </c>
-      <c r="L4" s="1" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>10</v>
@@ -5951,7 +5953,7 @@
         <v>1</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>21</v>
@@ -5960,10 +5962,10 @@
         <v>16</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I5">
         <v>1</v>
@@ -5980,7 +5982,7 @@
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>10</v>
@@ -5989,7 +5991,7 @@
         <v>2</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>16</v>
@@ -5997,7 +5999,7 @@
       <c r="F6" s="1"/>
       <c r="G6" s="1"/>
       <c r="H6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I6">
         <v>1</v>
@@ -6014,63 +6016,63 @@
     </row>
     <row r="8" spans="1:12" s="1" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="E8" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="B8" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="E8" s="1" t="s">
+      <c r="F8" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="F8" s="1" t="s">
+      <c r="G8" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="G8" s="1" t="s">
+      <c r="H8" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="H8" s="1" t="s">
+      <c r="I8" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="J8" s="1" t="s">
         <v>79</v>
-      </c>
-      <c r="I8" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="J8" s="1" t="s">
-        <v>80</v>
       </c>
     </row>
     <row r="9" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>24</v>
       </c>
       <c r="G9" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="J9" s="1" t="s">
         <v>81</v>
-      </c>
-      <c r="H9" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="I9" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="J9" s="1" t="s">
-        <v>82</v>
       </c>
     </row>
   </sheetData>
